--- a/data/Historical transportation energy usage.xlsx
+++ b/data/Historical transportation energy usage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s203679_dtu_dk/Documents/Dokumenter/DTU_Man/h2_system_dynamics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="425" documentId="8_{38CC39AE-E8BC-4669-877F-52EB53725240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{675B35A0-7D4F-497E-B461-C7E5F19A3A27}"/>
+  <xr:revisionPtr revIDLastSave="446" documentId="8_{38CC39AE-E8BC-4669-877F-52EB53725240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77BE7939-2181-42B4-A234-55EA1C99933A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -6302,7 +6302,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'International Shipping'!$B$58:$BJ$58</c:f>
+              <c:f>'International Shipping'!$B$60:$BJ$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -6427,67 +6427,67 @@
                   <c:v>629624.76669899991</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>639183.95526889991</c:v>
+                  <c:v>639183.95526890003</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>648743.14383879991</c:v>
+                  <c:v>642255.71240041207</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>658302.33240869991</c:v>
+                  <c:v>645136.28576052608</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>667861.5209785999</c:v>
+                  <c:v>647825.67534924205</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>677420.7095484999</c:v>
+                  <c:v>650323.88116655999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>686979.8981183999</c:v>
+                  <c:v>652630.90321248001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>696539.0866882999</c:v>
+                  <c:v>654746.741487002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>706098.27525819989</c:v>
+                  <c:v>656671.39599012607</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>715657.46382809989</c:v>
+                  <c:v>658404.86672185198</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>725216.65239799989</c:v>
+                  <c:v>659947.15368217998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>734775.84096789989</c:v>
+                  <c:v>661298.25687110994</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>744335.02953779988</c:v>
+                  <c:v>662458.17628864199</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>753894.21810769988</c:v>
+                  <c:v>663426.911934776</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>763453.40667759988</c:v>
+                  <c:v>664204.46380951197</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>773012.59524749988</c:v>
+                  <c:v>664790.83191284991</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>782571.78381739988</c:v>
+                  <c:v>665186.01624478993</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>792130.97238729987</c:v>
+                  <c:v>665390.01680533192</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>801690.16095719987</c:v>
+                  <c:v>665402.83359447599</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>811249.34952709987</c:v>
+                  <c:v>665224.46661222191</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>820808.53809699987</c:v>
+                  <c:v>664854.9158585699</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>830367.72666689986</c:v>
+                  <c:v>664294.18133351998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9222,7 +9222,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Domestic Shipping'!$B$58:$BJ$58</c:f>
+              <c:f>'Domestic Shipping'!$B$60:$BJ$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -9347,67 +9347,67 @@
                   <c:v>88803.049200000023</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>90283.100020000027</c:v>
+                  <c:v>90283.100020000042</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>91763.150840000031</c:v>
+                  <c:v>90845.519331600051</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>93243.201660000035</c:v>
+                  <c:v>91378.337626800057</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>94723.252480000039</c:v>
+                  <c:v>91881.55490560006</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>96203.303300000043</c:v>
+                  <c:v>92355.171168000059</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>97683.354120000047</c:v>
+                  <c:v>92799.186414000069</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>99163.404940000051</c:v>
+                  <c:v>93213.600643600061</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>100643.45576000006</c:v>
+                  <c:v>93598.413856800064</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>102123.50658000006</c:v>
+                  <c:v>93953.626053600063</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>103603.55740000006</c:v>
+                  <c:v>94279.237234000073</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>105083.60822000007</c:v>
+                  <c:v>94575.24739800008</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>106563.65904000007</c:v>
+                  <c:v>94841.656545600083</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>108043.70986000008</c:v>
+                  <c:v>95078.464676800082</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>109523.76068000008</c:v>
+                  <c:v>95285.671791600078</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>111003.81150000008</c:v>
+                  <c:v>95463.277890000085</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>112483.86232000009</c:v>
+                  <c:v>95611.282972000088</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>113963.91314000009</c:v>
+                  <c:v>95729.687037600088</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>115443.9639600001</c:v>
+                  <c:v>95818.490086800084</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>116924.0147800001</c:v>
+                  <c:v>95877.692119600091</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>118404.0656000001</c:v>
+                  <c:v>95907.293136000095</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>119884.11642000011</c:v>
+                  <c:v>95907.293136000095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28990,8 +28990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A011E225-0F34-4D07-8DF0-A61D9FE52262}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31023,10 +31023,10 @@
   <dimension ref="A1:BJ58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="11" topLeftCell="AP32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="11" topLeftCell="AK49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AT58" sqref="AT58"/>
+      <selection pane="bottomRight" activeCell="B59" sqref="B59:BJ60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -50132,13 +50132,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BJ58"/>
+  <dimension ref="A1:BJ60"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="11" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="11" topLeftCell="O50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U59" sqref="U59"/>
+      <selection pane="bottomRight" activeCell="BB58" sqref="BB58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -55367,6 +55367,457 @@
         <v>830367.72666689986</v>
       </c>
     </row>
+    <row r="59" spans="1:62" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <v>1</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+      <c r="X59">
+        <v>1</v>
+      </c>
+      <c r="Y59">
+        <v>1</v>
+      </c>
+      <c r="Z59">
+        <v>1</v>
+      </c>
+      <c r="AA59">
+        <v>1</v>
+      </c>
+      <c r="AB59">
+        <v>1</v>
+      </c>
+      <c r="AC59">
+        <v>1</v>
+      </c>
+      <c r="AD59">
+        <v>1</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
+      </c>
+      <c r="AF59">
+        <v>1</v>
+      </c>
+      <c r="AG59">
+        <v>1</v>
+      </c>
+      <c r="AH59">
+        <v>1</v>
+      </c>
+      <c r="AI59">
+        <v>1</v>
+      </c>
+      <c r="AJ59">
+        <v>1</v>
+      </c>
+      <c r="AK59">
+        <v>1</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
+        <v>1</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
+        <v>1</v>
+      </c>
+      <c r="AP59">
+        <f>AQ59+0.01</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="AQ59">
+        <f>AR59+0.01</f>
+        <v>0.99000000000000021</v>
+      </c>
+      <c r="AR59">
+        <f>AS59+0.01</f>
+        <v>0.9800000000000002</v>
+      </c>
+      <c r="AS59">
+        <f>AT59+0.01</f>
+        <v>0.9700000000000002</v>
+      </c>
+      <c r="AT59">
+        <f>AU59+0.01</f>
+        <v>0.96000000000000019</v>
+      </c>
+      <c r="AU59">
+        <f>AV59+0.01</f>
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="AV59">
+        <f>AW59+0.01</f>
+        <v>0.94000000000000017</v>
+      </c>
+      <c r="AW59">
+        <f>AX59+0.01</f>
+        <v>0.93000000000000016</v>
+      </c>
+      <c r="AX59">
+        <f>AY59+0.01</f>
+        <v>0.92000000000000015</v>
+      </c>
+      <c r="AY59">
+        <f>AZ59+0.01</f>
+        <v>0.91000000000000014</v>
+      </c>
+      <c r="AZ59">
+        <f>BA59+0.01</f>
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="BA59">
+        <f>BB59+0.01</f>
+        <v>0.89000000000000012</v>
+      </c>
+      <c r="BB59">
+        <f>BC59+0.01</f>
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="BC59">
+        <f>BD59+0.01</f>
+        <v>0.87000000000000011</v>
+      </c>
+      <c r="BD59">
+        <f>BE59+0.01</f>
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="BE59">
+        <f>BF59+0.01</f>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="BF59">
+        <f>BG59+0.01</f>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="BG59">
+        <f>BH59+0.01</f>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="BH59">
+        <f>BI59+0.01</f>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="BI59">
+        <f>BJ59+0.01</f>
+        <v>0.81</v>
+      </c>
+      <c r="BJ59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:62" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f>B59*B58</f>
+        <v>420442.56100000005</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ref="C60:BJ60" si="3">C59*C58</f>
+        <v>416040.66899999999</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="3"/>
+        <v>421377.58800000011</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="3"/>
+        <v>419745.05699999997</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="3"/>
+        <v>412997.17100000009</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="3"/>
+        <v>418663.60200000007</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="3"/>
+        <v>441341.19999999995</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="3"/>
+        <v>476293.83999999991</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="3"/>
+        <v>497164.97400000016</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="3"/>
+        <v>471125.08100000001</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="3"/>
+        <v>504202.22300000011</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="3"/>
+        <v>519926.50199999998</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="3"/>
+        <v>528817.10400000005</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="3"/>
+        <v>540226.54700000014</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="3"/>
+        <v>569438.12200000009</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="3"/>
+        <v>581506.16800000006</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="3"/>
+        <v>618546.39799999993</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="3"/>
+        <v>645923.93399999989</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="3"/>
+        <v>649579.16800000006</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="3"/>
+        <v>583112.17399999988</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="3"/>
+        <v>581222.57999999984</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="3"/>
+        <v>583251.21499999997</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="3"/>
+        <v>542692.45200000005</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="3"/>
+        <v>514523.90400000004</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="3"/>
+        <v>499873.78000000009</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="3"/>
+        <v>494726.37099999998</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="3"/>
+        <v>519188.97800000006</v>
+      </c>
+      <c r="AC60">
+        <f t="shared" si="3"/>
+        <v>522156.94399999996</v>
+      </c>
+      <c r="AD60">
+        <f t="shared" si="3"/>
+        <v>539450.04899999988</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="3"/>
+        <v>534032.88099999994</v>
+      </c>
+      <c r="AF60">
+        <f t="shared" si="3"/>
+        <v>543592.06956989993</v>
+      </c>
+      <c r="AG60">
+        <f t="shared" si="3"/>
+        <v>553151.25813979993</v>
+      </c>
+      <c r="AH60">
+        <f t="shared" si="3"/>
+        <v>562710.44670969993</v>
+      </c>
+      <c r="AI60">
+        <f t="shared" si="3"/>
+        <v>572269.63527959993</v>
+      </c>
+      <c r="AJ60">
+        <f t="shared" si="3"/>
+        <v>581828.82384949992</v>
+      </c>
+      <c r="AK60">
+        <f t="shared" si="3"/>
+        <v>591388.01241939992</v>
+      </c>
+      <c r="AL60">
+        <f t="shared" si="3"/>
+        <v>600947.20098929992</v>
+      </c>
+      <c r="AM60">
+        <f t="shared" si="3"/>
+        <v>610506.38955919992</v>
+      </c>
+      <c r="AN60">
+        <f t="shared" si="3"/>
+        <v>620065.57812909991</v>
+      </c>
+      <c r="AO60">
+        <f t="shared" si="3"/>
+        <v>629624.76669899991</v>
+      </c>
+      <c r="AP60">
+        <f t="shared" si="3"/>
+        <v>639183.95526890003</v>
+      </c>
+      <c r="AQ60">
+        <f t="shared" si="3"/>
+        <v>642255.71240041207</v>
+      </c>
+      <c r="AR60">
+        <f t="shared" si="3"/>
+        <v>645136.28576052608</v>
+      </c>
+      <c r="AS60">
+        <f t="shared" si="3"/>
+        <v>647825.67534924205</v>
+      </c>
+      <c r="AT60">
+        <f t="shared" si="3"/>
+        <v>650323.88116655999</v>
+      </c>
+      <c r="AU60">
+        <f t="shared" si="3"/>
+        <v>652630.90321248001</v>
+      </c>
+      <c r="AV60">
+        <f t="shared" si="3"/>
+        <v>654746.741487002</v>
+      </c>
+      <c r="AW60">
+        <f t="shared" si="3"/>
+        <v>656671.39599012607</v>
+      </c>
+      <c r="AX60">
+        <f t="shared" si="3"/>
+        <v>658404.86672185198</v>
+      </c>
+      <c r="AY60">
+        <f t="shared" si="3"/>
+        <v>659947.15368217998</v>
+      </c>
+      <c r="AZ60">
+        <f t="shared" si="3"/>
+        <v>661298.25687110994</v>
+      </c>
+      <c r="BA60">
+        <f t="shared" si="3"/>
+        <v>662458.17628864199</v>
+      </c>
+      <c r="BB60">
+        <f t="shared" si="3"/>
+        <v>663426.911934776</v>
+      </c>
+      <c r="BC60">
+        <f t="shared" si="3"/>
+        <v>664204.46380951197</v>
+      </c>
+      <c r="BD60">
+        <f t="shared" si="3"/>
+        <v>664790.83191284991</v>
+      </c>
+      <c r="BE60">
+        <f t="shared" si="3"/>
+        <v>665186.01624478993</v>
+      </c>
+      <c r="BF60">
+        <f t="shared" si="3"/>
+        <v>665390.01680533192</v>
+      </c>
+      <c r="BG60">
+        <f t="shared" si="3"/>
+        <v>665402.83359447599</v>
+      </c>
+      <c r="BH60">
+        <f t="shared" si="3"/>
+        <v>665224.46661222191</v>
+      </c>
+      <c r="BI60">
+        <f t="shared" si="3"/>
+        <v>664854.9158585699</v>
+      </c>
+      <c r="BJ60">
+        <f t="shared" si="3"/>
+        <v>664294.18133351998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -55375,13 +55826,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:BJ58"/>
+  <dimension ref="A1:BJ60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="11" topLeftCell="T52" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="11" topLeftCell="N52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI71" sqref="AI71"/>
+      <selection pane="bottomRight" activeCell="AJ58" sqref="AJ58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -60610,6 +61061,457 @@
         <v>119884.11642000011</v>
       </c>
     </row>
+    <row r="59" spans="1:62" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <v>1</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+      <c r="X59">
+        <v>1</v>
+      </c>
+      <c r="Y59">
+        <v>1</v>
+      </c>
+      <c r="Z59">
+        <v>1</v>
+      </c>
+      <c r="AA59">
+        <v>1</v>
+      </c>
+      <c r="AB59">
+        <v>1</v>
+      </c>
+      <c r="AC59">
+        <v>1</v>
+      </c>
+      <c r="AD59">
+        <v>1</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
+      </c>
+      <c r="AF59">
+        <v>1</v>
+      </c>
+      <c r="AG59">
+        <v>1</v>
+      </c>
+      <c r="AH59">
+        <v>1</v>
+      </c>
+      <c r="AI59">
+        <v>1</v>
+      </c>
+      <c r="AJ59">
+        <v>1</v>
+      </c>
+      <c r="AK59">
+        <v>1</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
+        <v>1</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
+        <v>1</v>
+      </c>
+      <c r="AP59">
+        <f>AQ59+0.01</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="AQ59">
+        <f>AR59+0.01</f>
+        <v>0.99000000000000021</v>
+      </c>
+      <c r="AR59">
+        <f>AS59+0.01</f>
+        <v>0.9800000000000002</v>
+      </c>
+      <c r="AS59">
+        <f>AT59+0.01</f>
+        <v>0.9700000000000002</v>
+      </c>
+      <c r="AT59">
+        <f>AU59+0.01</f>
+        <v>0.96000000000000019</v>
+      </c>
+      <c r="AU59">
+        <f>AV59+0.01</f>
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="AV59">
+        <f>AW59+0.01</f>
+        <v>0.94000000000000017</v>
+      </c>
+      <c r="AW59">
+        <f>AX59+0.01</f>
+        <v>0.93000000000000016</v>
+      </c>
+      <c r="AX59">
+        <f>AY59+0.01</f>
+        <v>0.92000000000000015</v>
+      </c>
+      <c r="AY59">
+        <f>AZ59+0.01</f>
+        <v>0.91000000000000014</v>
+      </c>
+      <c r="AZ59">
+        <f>BA59+0.01</f>
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="BA59">
+        <f>BB59+0.01</f>
+        <v>0.89000000000000012</v>
+      </c>
+      <c r="BB59">
+        <f>BC59+0.01</f>
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="BC59">
+        <f>BD59+0.01</f>
+        <v>0.87000000000000011</v>
+      </c>
+      <c r="BD59">
+        <f>BE59+0.01</f>
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="BE59">
+        <f>BF59+0.01</f>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="BF59">
+        <f>BG59+0.01</f>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="BG59">
+        <f>BH59+0.01</f>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="BH59">
+        <f>BI59+0.01</f>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="BI59">
+        <f>BJ59+0.01</f>
+        <v>0.81</v>
+      </c>
+      <c r="BJ59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:62" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f>B59*B58</f>
+        <v>83165.615000000005</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ref="C60:BJ60" si="3">C59*C58</f>
+        <v>84798.609000000011</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="3"/>
+        <v>84955.585999999996</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="3"/>
+        <v>82766.986000000004</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="3"/>
+        <v>82592.511000000013</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="3"/>
+        <v>80043.44</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="3"/>
+        <v>86680.451000000001</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="3"/>
+        <v>84450.986000000004</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="3"/>
+        <v>84945.965000000011</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="3"/>
+        <v>90256.138000000006</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="3"/>
+        <v>80252.753000000012</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="3"/>
+        <v>78781.469000000012</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="3"/>
+        <v>78382.258999999991</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="3"/>
+        <v>88114.270999999993</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="3"/>
+        <v>88870.878000000012</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="3"/>
+        <v>90189.382000000012</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="3"/>
+        <v>97089.014999999999</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="3"/>
+        <v>93154.939000000028</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="3"/>
+        <v>85130.51400000001</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="3"/>
+        <v>81783.372000000003</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="3"/>
+        <v>83212.705000000002</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="3"/>
+        <v>76752.392000000007</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="3"/>
+        <v>74661.994999999995</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="3"/>
+        <v>68486.83100000002</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="3"/>
+        <v>64589.723000000013</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="3"/>
+        <v>70277.907000000021</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="3"/>
+        <v>72092.870000000024</v>
+      </c>
+      <c r="AC60">
+        <f t="shared" si="3"/>
+        <v>74423.975999999981</v>
+      </c>
+      <c r="AD60">
+        <f t="shared" si="3"/>
+        <v>72910.543999999994</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="3"/>
+        <v>74002.540999999983</v>
+      </c>
+      <c r="AF60">
+        <f t="shared" si="3"/>
+        <v>75482.591819999987</v>
+      </c>
+      <c r="AG60">
+        <f t="shared" si="3"/>
+        <v>76962.642639999991</v>
+      </c>
+      <c r="AH60">
+        <f t="shared" si="3"/>
+        <v>78442.693459999995</v>
+      </c>
+      <c r="AI60">
+        <f t="shared" si="3"/>
+        <v>79922.744279999999</v>
+      </c>
+      <c r="AJ60">
+        <f t="shared" si="3"/>
+        <v>81402.795100000003</v>
+      </c>
+      <c r="AK60">
+        <f t="shared" si="3"/>
+        <v>82882.845920000007</v>
+      </c>
+      <c r="AL60">
+        <f t="shared" si="3"/>
+        <v>84362.896740000011</v>
+      </c>
+      <c r="AM60">
+        <f t="shared" si="3"/>
+        <v>85842.947560000015</v>
+      </c>
+      <c r="AN60">
+        <f t="shared" si="3"/>
+        <v>87322.998380000019</v>
+      </c>
+      <c r="AO60">
+        <f t="shared" si="3"/>
+        <v>88803.049200000023</v>
+      </c>
+      <c r="AP60">
+        <f t="shared" si="3"/>
+        <v>90283.100020000042</v>
+      </c>
+      <c r="AQ60">
+        <f t="shared" si="3"/>
+        <v>90845.519331600051</v>
+      </c>
+      <c r="AR60">
+        <f t="shared" si="3"/>
+        <v>91378.337626800057</v>
+      </c>
+      <c r="AS60">
+        <f t="shared" si="3"/>
+        <v>91881.55490560006</v>
+      </c>
+      <c r="AT60">
+        <f t="shared" si="3"/>
+        <v>92355.171168000059</v>
+      </c>
+      <c r="AU60">
+        <f t="shared" si="3"/>
+        <v>92799.186414000069</v>
+      </c>
+      <c r="AV60">
+        <f t="shared" si="3"/>
+        <v>93213.600643600061</v>
+      </c>
+      <c r="AW60">
+        <f t="shared" si="3"/>
+        <v>93598.413856800064</v>
+      </c>
+      <c r="AX60">
+        <f t="shared" si="3"/>
+        <v>93953.626053600063</v>
+      </c>
+      <c r="AY60">
+        <f t="shared" si="3"/>
+        <v>94279.237234000073</v>
+      </c>
+      <c r="AZ60">
+        <f t="shared" si="3"/>
+        <v>94575.24739800008</v>
+      </c>
+      <c r="BA60">
+        <f t="shared" si="3"/>
+        <v>94841.656545600083</v>
+      </c>
+      <c r="BB60">
+        <f t="shared" si="3"/>
+        <v>95078.464676800082</v>
+      </c>
+      <c r="BC60">
+        <f t="shared" si="3"/>
+        <v>95285.671791600078</v>
+      </c>
+      <c r="BD60">
+        <f t="shared" si="3"/>
+        <v>95463.277890000085</v>
+      </c>
+      <c r="BE60">
+        <f t="shared" si="3"/>
+        <v>95611.282972000088</v>
+      </c>
+      <c r="BF60">
+        <f t="shared" si="3"/>
+        <v>95729.687037600088</v>
+      </c>
+      <c r="BG60">
+        <f t="shared" si="3"/>
+        <v>95818.490086800084</v>
+      </c>
+      <c r="BH60">
+        <f t="shared" si="3"/>
+        <v>95877.692119600091</v>
+      </c>
+      <c r="BI60">
+        <f t="shared" si="3"/>
+        <v>95907.293136000095</v>
+      </c>
+      <c r="BJ60">
+        <f t="shared" si="3"/>
+        <v>95907.293136000095</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
